--- a/examples/regional-gen1.xlsx
+++ b/examples/regional-gen1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/gen1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AF71A3-9EBD-6F4F-B21D-D43DC537AD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E663E8-D533-2542-8210-002372EB78A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2240" windowWidth="25600" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sshkeys" sheetId="36" r:id="rId1"/>
@@ -28,34 +28,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>*name</t>
+  </si>
+  <si>
+    <t>*public_key</t>
+  </si>
+  <si>
+    <t>~/.ssh/id_rsa.pub</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
     <t>key1</t>
-  </si>
-  <si>
-    <t>*name</t>
-  </si>
-  <si>
-    <t>*public_key</t>
-  </si>
-  <si>
-    <t>~/.ssh/id_rsa.pub</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
   </si>
 </sst>
 </file>
@@ -436,9 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D3E930-7386-4478-9099-4EC8B39AF425}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -447,18 +445,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83121959-1082-4F4D-87C7-A880D5B9F0C5}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -483,32 +481,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
